--- a/colormaps.xlsx
+++ b/colormaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgeyelekci/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgeyelekci/Documents/GitHub/colormaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4CA9E6-9F45-0B46-BA4D-D14CE9306485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30752446-713A-C844-A05E-08A25F227918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1580" windowWidth="33300" windowHeight="16940" xr2:uid="{4890A7C7-8F06-474B-96D3-2C5081F17772}"/>
+    <workbookView xWindow="120" yWindow="1700" windowWidth="33300" windowHeight="16940" xr2:uid="{4890A7C7-8F06-474B-96D3-2C5081F17772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Divergent</t>
   </si>
@@ -120,9 +120,6 @@
     <t>misc_seq_3.txt</t>
   </si>
   <si>
-    <t>Lajolla by Fabio Crameri</t>
-  </si>
-  <si>
     <t>Color Brewer</t>
   </si>
   <si>
@@ -160,13 +157,20 @@
   </si>
   <si>
     <t>Davos by Fabio Crameri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lajolla by Fabio Crameri </t>
+  </si>
+  <si>
+    <t>Copyright (c) 2019, Fabio Crameri All rights reserved. THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" ANDSoftware with built-in versionsStagLab3.0 and laterGMT6.0 and laterTopoToolbox2.2 and laterSubMachineGeoscience ANALYST2.80 and laterReferencesLicense
+ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIEDWARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE AREDISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT OWNER OR CONTRIBUTORS BE LIABLE FORANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES(INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSSOF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANYTHEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDINGNEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVENIF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,16 +185,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,11 +229,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -234,6 +287,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258AE427-04BD-674C-94D8-9EE80B33F9DC}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,9 +1457,10 @@
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1423,10 +1489,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1435,11 +1504,12 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1451,10 +1521,11 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1464,10 +1535,11 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1478,11 +1550,12 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1492,10 +1565,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1506,11 +1579,11 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1519,11 +1592,11 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1535,10 +1608,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1547,11 +1620,11 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1563,10 +1636,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1575,26 +1648,26 @@
       <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1605,11 +1678,11 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1694,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,12 +1708,13 @@
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G2:G6"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>

--- a/colormaps.xlsx
+++ b/colormaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgeyelekci/Documents/GitHub/colormaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30752446-713A-C844-A05E-08A25F227918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5C572-9C3D-A249-BEBC-BAA1E2306B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1700" windowWidth="33300" windowHeight="16940" xr2:uid="{4890A7C7-8F06-474B-96D3-2C5081F17772}"/>
   </bookViews>
@@ -162,15 +162,17 @@
     <t xml:space="preserve">Lajolla by Fabio Crameri </t>
   </si>
   <si>
-    <t>Copyright (c) 2019, Fabio Crameri All rights reserved. THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS" ANDSoftware with built-in versionsStagLab3.0 and laterGMT6.0 and laterTopoToolbox2.2 and laterSubMachineGeoscience ANALYST2.80 and laterReferencesLicense
-ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE IMPLIEDWARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE AREDISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT OWNER OR CONTRIBUTORS BE LIABLE FORANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR CONSEQUENTIAL DAMAGES(INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE GOODS OR SERVICES; LOSSOF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION) HOWEVER CAUSED AND ON ANYTHEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT LIABILITY, OR TORT (INCLUDINGNEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT OF THE USE OF THIS SOFTWARE, EVENIF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.</t>
+    <t>Copyright (c) 2019, Fabio Crameri All rights reserved. These perceptually uniform colour maps are used in this guideline to prevent visual distortion of the data (Crameri 2018a,b).
+Crameri, F. (2018a), Scientific colour-maps. Zenodo. http://doi.org/10.5281/zenodo.1243862
+Crameri, F. (2018b), Geodynamic diagnostics, scientific visualisation and StagLab 3.0, Geosci. Model
+Dev., 11, 2541-2562, doi:10.5194/gmd-11-2541-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +189,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -285,19 +293,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1448,7 +1456,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,7 +1486,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1491,12 +1499,12 @@
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1504,13 +1512,13 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1523,10 +1531,10 @@
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1537,10 +1545,10 @@
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1550,13 +1558,13 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1577,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1579,12 +1587,12 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1592,12 +1600,12 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1612,7 +1620,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1620,12 +1628,12 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1640,7 +1648,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1656,7 @@
       <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1678,7 +1686,7 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1708,7 +1716,7 @@
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
